--- a/graph.xlsx
+++ b/graph.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DellXPS_7\Documents\研究事務\水理公式集例題集の改訂\例題作成\5-1\提出20221010\プログラム集\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DellXPS_7\Documents\研究事務\水理公式集例題集の改訂\例題作成\5-1\修正20221114\プログラム集\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530C0C54-D06D-4BFA-BD1C-E95C724BB219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1CDE09-1E6A-4A1B-8729-CA429059ED01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{93D27342-7463-4084-9AE7-E69980A77A26}"/>
+    <workbookView xWindow="1230" yWindow="410" windowWidth="17430" windowHeight="10490" xr2:uid="{93D27342-7463-4084-9AE7-E69980A77A26}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="2" r:id="rId1"/>
     <sheet name="Equations" sheetId="1" r:id="rId2"/>
     <sheet name="Functions" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,12 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -308,32 +305,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>【例題5.1（１）】</t>
-    <rPh sb="1" eb="3">
-      <t>レイダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>図ｰ1　水面変動，流速，および圧力の時間波形</t>
-    <rPh sb="0" eb="1">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="4" eb="8">
-      <t>スイメンヘンドウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>リュウソク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>アツリョク</t>
-    </rPh>
-    <rPh sb="18" eb="22">
-      <t>ジカンハケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -417,44 +388,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>図ｰ2　関数tanh khのグラフ</t>
-    <rPh sb="0" eb="1">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カンスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>図ｰ3　相対水深khに対する群速度と位相速度の比nの変化</t>
-    <rPh sb="0" eb="1">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ソウタイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>スイシン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>グンソクド</t>
-    </rPh>
-    <rPh sb="18" eb="22">
-      <t>イソウソクド</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ヘンカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <t>2kh/</t>
     </r>
@@ -478,6 +411,70 @@
       </rPr>
       <t xml:space="preserve"> 2kh</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>図5.1.1　水面変動，流速，および圧力の時間波形</t>
+    <rPh sb="0" eb="1">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>スイメンヘンドウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>リュウソク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>アツリョク</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>ジカンハケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>図5.1.2　関数tanh khのグラフ</t>
+    <rPh sb="0" eb="1">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>図5.1.3　相対水深khに対する群速度と位相速度の比nの変化</t>
+    <rPh sb="0" eb="1">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ソウタイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>スイシン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>グンソクド</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>イソウソクド</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【例題5.1】（１）</t>
+    <rPh sb="1" eb="3">
+      <t>レイダイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -12614,25 +12611,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39415BDA-A40E-48EC-8CF3-46F581C0C0C5}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="2.125" customWidth="1"/>
-    <col min="3" max="3" width="5.125" customWidth="1"/>
-    <col min="4" max="4" width="2.625" customWidth="1"/>
-    <col min="5" max="5" width="6.125" customWidth="1"/>
-    <col min="6" max="6" width="2.125" customWidth="1"/>
-    <col min="7" max="7" width="2.625" customWidth="1"/>
+    <col min="1" max="1" width="2.58203125" customWidth="1"/>
+    <col min="2" max="2" width="2.08203125" customWidth="1"/>
+    <col min="3" max="3" width="5.08203125" customWidth="1"/>
+    <col min="4" max="4" width="2.58203125" customWidth="1"/>
+    <col min="5" max="5" width="6.08203125" customWidth="1"/>
+    <col min="6" max="6" width="2.08203125" customWidth="1"/>
+    <col min="7" max="7" width="2.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="2"/>
       <c r="C2" s="5" t="s">
         <v>4</v>
@@ -12645,10 +12642,10 @@
       </c>
       <c r="F2" s="3"/>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="2"/>
       <c r="C3" s="5" t="s">
         <v>5</v>
@@ -12661,7 +12658,7 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="2"/>
       <c r="C4" s="5" t="s">
         <v>6</v>
@@ -12674,7 +12671,7 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -12704,20 +12701,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B87363C-7E0B-4225-A309-B13B7E7A51A7}">
   <dimension ref="B2:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="2.125" customWidth="1"/>
-    <col min="3" max="3" width="5.125" customWidth="1"/>
-    <col min="4" max="4" width="2.625" customWidth="1"/>
-    <col min="5" max="5" width="6.125" customWidth="1"/>
-    <col min="6" max="6" width="2.125" customWidth="1"/>
-    <col min="7" max="7" width="2.625" customWidth="1"/>
+    <col min="1" max="1" width="2.58203125" customWidth="1"/>
+    <col min="2" max="2" width="2.08203125" customWidth="1"/>
+    <col min="3" max="3" width="5.08203125" customWidth="1"/>
+    <col min="4" max="4" width="2.58203125" customWidth="1"/>
+    <col min="5" max="5" width="6.08203125" customWidth="1"/>
+    <col min="6" max="6" width="2.08203125" customWidth="1"/>
+    <col min="7" max="7" width="2.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="2"/>
       <c r="C2" s="5" t="s">
         <v>4</v>
@@ -12746,10 +12743,10 @@
         <v>10</v>
       </c>
       <c r="N2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="2"/>
       <c r="C3" s="5" t="s">
         <v>5</v>
@@ -12782,7 +12779,7 @@
         <v>5.316985314393964</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="2"/>
       <c r="C4" s="5" t="s">
         <v>6</v>
@@ -12815,7 +12812,7 @@
         <v>5.3014709488242477</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -12852,7 +12849,7 @@
         <v>5.2564465063120025</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="H6">
         <v>0.15</v>
       </c>
@@ -12873,7 +12870,7 @@
         <v>5.1863192929940656</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="H7">
         <v>0.2</v>
       </c>
@@ -12894,7 +12891,7 @@
         <v>5.0979538491150205</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="H8">
         <v>0.25</v>
       </c>
@@ -12915,7 +12912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="H9">
         <v>0.3</v>
       </c>
@@ -12936,7 +12933,7 @@
         <v>4.9020461508849795</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="H10">
         <v>0.35</v>
       </c>
@@ -12957,7 +12954,7 @@
         <v>4.8136807070059344</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="H11">
         <v>0.4</v>
       </c>
@@ -12978,7 +12975,7 @@
         <v>4.7435534936879975</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="H12">
         <v>0.45</v>
       </c>
@@ -12999,7 +12996,7 @@
         <v>4.6985290511757523</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="H13">
         <v>0.5</v>
       </c>
@@ -13020,7 +13017,7 @@
         <v>4.683014685606036</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="H14">
         <v>0.55000000000000004</v>
       </c>
@@ -13041,7 +13038,7 @@
         <v>4.6985290511757523</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="H15">
         <v>0.6</v>
       </c>
@@ -13062,7 +13059,7 @@
         <v>4.7435534936879975</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="H16">
         <v>0.65</v>
       </c>
@@ -13083,7 +13080,7 @@
         <v>4.8136807070059344</v>
       </c>
     </row>
-    <row r="17" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="8:12" x14ac:dyDescent="0.55000000000000004">
       <c r="H17">
         <v>0.7</v>
       </c>
@@ -13104,7 +13101,7 @@
         <v>4.9020461508849795</v>
       </c>
     </row>
-    <row r="18" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="8:12" x14ac:dyDescent="0.55000000000000004">
       <c r="H18">
         <v>0.75</v>
       </c>
@@ -13125,7 +13122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="8:12" x14ac:dyDescent="0.55000000000000004">
       <c r="H19">
         <v>0.8</v>
       </c>
@@ -13146,7 +13143,7 @@
         <v>5.0979538491150205</v>
       </c>
     </row>
-    <row r="20" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="8:12" x14ac:dyDescent="0.55000000000000004">
       <c r="H20">
         <v>0.85</v>
       </c>
@@ -13167,7 +13164,7 @@
         <v>5.1863192929940656</v>
       </c>
     </row>
-    <row r="21" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="8:12" x14ac:dyDescent="0.55000000000000004">
       <c r="H21">
         <v>0.9</v>
       </c>
@@ -13188,7 +13185,7 @@
         <v>5.2564465063120025</v>
       </c>
     </row>
-    <row r="22" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="8:12" x14ac:dyDescent="0.55000000000000004">
       <c r="H22">
         <v>0.95</v>
       </c>
@@ -13209,7 +13206,7 @@
         <v>5.3014709488242477</v>
       </c>
     </row>
-    <row r="23" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="8:12" x14ac:dyDescent="0.55000000000000004">
       <c r="H23">
         <v>1</v>
       </c>
@@ -13231,7 +13228,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="MRaGzbZgjVEdZ3z/B0K3VadnDpTJBzSJnTTDGSseBwuSEStpkmWgO2b+t8lfr1w5dmh7Z0fMkB9ipolFsAKl4g==" saltValue="Ay5dnYIXLpEarWD8sGaTfA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -13245,24 +13241,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="6" max="6" width="11.125" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="2.58203125" customWidth="1"/>
+    <col min="6" max="6" width="11.08203125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>18</v>
@@ -13271,7 +13267,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3">
         <v>0</v>
       </c>
@@ -13290,7 +13286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B4">
         <v>0.1</v>
       </c>
@@ -13303,7 +13299,7 @@
         <v>3.9249734236030606E-2</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E35" si="2">1/2*(1+2*$C4/SINH(2*$C4))</f>
+        <f t="shared" ref="E3:E35" si="2">1/2*(1+2*$C4/SINH(2*$C4))</f>
         <v>0.99948632779834778</v>
       </c>
       <c r="F4">
@@ -13311,7 +13307,7 @@
         <v>0.99336431376290324</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B5">
         <v>0.2</v>
       </c>
@@ -13332,7 +13328,7 @@
         <v>0.9738228486429138</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B6">
         <v>0.3</v>
       </c>
@@ -13353,7 +13349,7 @@
         <v>0.94242774536104523</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B7">
         <v>0.4</v>
       </c>
@@ -13374,7 +13370,7 @@
         <v>0.90079339183078544</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B8">
         <v>0.5</v>
       </c>
@@ -13395,7 +13391,7 @@
         <v>0.85091812823932156</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B9">
         <v>0.6</v>
       </c>
@@ -13416,7 +13412,7 @@
         <v>0.79498557263317859</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B10">
         <v>0.7</v>
       </c>
@@ -13437,7 +13433,7 @@
         <v>0.73517770107982605</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B11">
         <v>0.8</v>
       </c>
@@ -13458,7 +13454,7 @@
         <v>0.67352314542068614</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B12">
         <v>0.9</v>
       </c>
@@ -13479,7 +13475,7 @@
         <v>0.61179244454788873</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B13">
         <v>1</v>
       </c>
@@ -13500,7 +13496,7 @@
         <v>0.55144112954356639</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B14">
         <v>1.2</v>
       </c>
@@ -13521,7 +13517,7 @@
         <v>0.43905952461623465</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B15">
         <v>1.4</v>
       </c>
@@ -13542,7 +13538,7 @@
         <v>0.34180028156068754</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B16">
         <v>1.6</v>
       </c>
@@ -13563,7 +13559,7 @@
         <v>0.2613122907988904</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B17">
         <v>1.8</v>
       </c>
@@ -13584,7 +13580,7 @@
         <v>0.1968777877828497</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B18">
         <v>2</v>
       </c>
@@ -13605,7 +13601,7 @@
         <v>0.14657428130346245</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B19">
         <v>2.5</v>
       </c>
@@ -13626,7 +13622,7 @@
         <v>6.7382529152945445E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B20">
         <v>3</v>
       </c>
@@ -13647,13 +13643,13 @@
         <v>2.9745208880876159E-2</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B21">
         <v>3.5</v>
       </c>
@@ -13685,7 +13681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B22">
         <v>4</v>
       </c>
@@ -13717,7 +13713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B23">
         <v>4.5</v>
       </c>
@@ -13738,7 +13734,7 @@
         <v>2.2213765073917512E-3</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B24">
         <v>5</v>
       </c>
@@ -13759,7 +13755,7 @@
         <v>9.0799859712122164E-4</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B25">
         <v>5.5</v>
       </c>
@@ -13780,7 +13776,7 @@
         <v>3.6743741748790002E-4</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B26">
         <v>6</v>
       </c>
@@ -13801,7 +13797,7 @@
         <v>1.4746109648544392E-4</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B27">
         <v>6.5</v>
       </c>
@@ -13822,7 +13818,7 @@
         <v>5.8768564581807666E-5</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B28">
         <v>7</v>
       </c>
@@ -13843,7 +13839,7 @@
         <v>2.3282804134915998E-5</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B29">
         <v>7.5</v>
       </c>
@@ -13864,7 +13860,7 @@
         <v>9.1770696150556316E-6</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B30">
         <v>8</v>
       </c>
@@ -13885,7 +13881,7 @@
         <v>3.601125591016337E-6</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B31">
         <v>9</v>
       </c>
@@ -13906,7 +13902,7 @@
         <v>5.4827927080965474E-7</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B32">
         <v>10</v>
       </c>
@@ -13927,7 +13923,7 @@
         <v>8.2446144897542318E-8</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B33">
         <v>12</v>
       </c>
@@ -13948,7 +13944,7 @@
         <v>1.8120645812539669E-9</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B34">
         <v>14</v>
       </c>
@@ -13969,7 +13965,7 @@
         <v>3.8720640598865139E-11</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B35">
         <v>16</v>
       </c>
